--- a/Diagrama de Gantt.xlsx
+++ b/Diagrama de Gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\ProyectoPractica\practica2022JenniferCalel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,15 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>Antecedentes</t>
   </si>
@@ -162,7 +160,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,12 +217,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF43AA8B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF4D908E"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -259,8 +251,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBAEF43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -391,15 +401,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
@@ -551,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -562,13 +563,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,42 +590,93 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -640,65 +689,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,16 +718,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0066"/>
+      <color rgb="FFBAEF43"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFCC66"/>
+      <color rgb="FF90BE6D"/>
       <color rgb="FF57B190"/>
-      <color rgb="FF90BE6D"/>
       <color rgb="FFF9C74F"/>
       <color rgb="FF277DA1"/>
       <color rgb="FF577590"/>
       <color rgb="FF4D908E"/>
-      <color rgb="FF43AA8B"/>
-      <color rgb="FFF9844A"/>
-      <color rgb="FFF8961E"/>
-      <color rgb="FFF3722C"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1018,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT14"/>
+  <dimension ref="A1:BA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -1038,821 +1048,907 @@
     <col min="23" max="23" width="4.85546875" style="1" customWidth="1"/>
     <col min="24" max="45" width="4.7109375" style="1" customWidth="1"/>
     <col min="46" max="46" width="4.85546875" style="1" customWidth="1"/>
-    <col min="47" max="16384" width="11.42578125" style="1"/>
+    <col min="47" max="47" width="4.7109375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="4.85546875" style="1" customWidth="1"/>
+    <col min="49" max="49" width="4.7109375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="4.85546875" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="34" t="s">
+    <row r="1" spans="1:53" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="34" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="36"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
     </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30">
+    <row r="2" spans="1:53" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="18">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="31" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="31" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="31" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="31" t="s">
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="31" t="s">
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="31" t="s">
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="31" t="s">
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32" t="s">
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="33"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="37"/>
     </row>
-    <row r="3" spans="1:46" ht="20.25" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:53" ht="20.25" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="W3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AB3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AC3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AF3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AG3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AH3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AI3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AK3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AL3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="42" t="s">
+      <c r="AM3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AN3" s="42" t="s">
+      <c r="AN3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AO3" s="42" t="s">
+      <c r="AO3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AP3" s="42" t="s">
+      <c r="AP3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AQ3" s="42" t="s">
+      <c r="AQ3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AR3" s="37" t="s">
+      <c r="AR3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AS3" s="37" t="s">
+      <c r="AS3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AT3" s="39" t="s">
+      <c r="AT3" s="19" t="s">
         <v>11</v>
       </c>
+      <c r="AU3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX3" s="21" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" ht="20.25" customHeight="1">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:53" ht="20.25" customHeight="1">
+      <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="19"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
     </row>
-    <row r="5" spans="1:46" ht="21" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:53" ht="21" customHeight="1">
+      <c r="A5" s="39"/>
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="11"/>
-      <c r="AQ5" s="11"/>
-      <c r="AR5" s="11"/>
-      <c r="AS5" s="11"/>
-      <c r="AT5" s="19"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
     </row>
-    <row r="6" spans="1:46" ht="20.25" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="1:53" ht="20.25" customHeight="1">
+      <c r="A6" s="39"/>
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="19"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
     </row>
-    <row r="7" spans="1:46" ht="20.25" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="1:53" ht="20.25" customHeight="1">
+      <c r="A7" s="39"/>
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="19"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
     </row>
-    <row r="8" spans="1:46" ht="20.25" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:53" ht="20.25" customHeight="1">
+      <c r="A8" s="41"/>
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="19"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
     </row>
-    <row r="9" spans="1:46" ht="19.5" customHeight="1">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:53" ht="19.5" customHeight="1">
+      <c r="A9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="11"/>
-      <c r="AT9" s="19"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
     </row>
-    <row r="10" spans="1:46" ht="20.25" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="1:53" ht="20.25" customHeight="1">
+      <c r="A10" s="39"/>
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="38"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="11"/>
-      <c r="AS10" s="11"/>
-      <c r="AT10" s="19"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
     </row>
-    <row r="11" spans="1:46" ht="20.25" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="1:53" ht="20.25" customHeight="1">
+      <c r="A11" s="39"/>
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="49"/>
-      <c r="AM11" s="49"/>
-      <c r="AN11" s="49"/>
-      <c r="AO11" s="11"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="19"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
     </row>
-    <row r="12" spans="1:46" ht="20.25" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:53" ht="20.25" customHeight="1">
+      <c r="A12" s="39"/>
+      <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="49"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="19"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
     </row>
-    <row r="13" spans="1:46" ht="20.25" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:53" ht="20.25" customHeight="1">
+      <c r="A13" s="39"/>
+      <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="49"/>
-      <c r="AP13" s="49"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="11"/>
-      <c r="AT13" s="19"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
     </row>
-    <row r="14" spans="1:46" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="1:53" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A14" s="40"/>
+      <c r="B14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="43"/>
-      <c r="AN14" s="43"/>
-      <c r="AO14" s="43"/>
-      <c r="AP14" s="43"/>
-      <c r="AQ14" s="43"/>
-      <c r="AR14" s="40"/>
-      <c r="AS14" s="40"/>
-      <c r="AT14" s="41"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="22"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="23"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="23"/>
+    </row>
+    <row r="18" spans="7:18">
+      <c r="G18" s="50"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="AU2:BA2"/>
     <mergeCell ref="C1:W1"/>
     <mergeCell ref="X1:AT1"/>
     <mergeCell ref="AM2:AQ2"/>
@@ -1871,28 +1967,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>